--- a/biology/Botanique/Livistona_mariae/Livistona_mariae.xlsx
+++ b/biology/Botanique/Livistona_mariae/Livistona_mariae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le palmier chou d'Australie centrale (Livistona mariae) est une espèce de plantes qui appartient à la grande famille des Arecaceae (palmiers). Il ne se trouvait au départ que dans la Palm Valley, dans le Territoire du Nord en Australie. Il est cultivé dans de nombreux pays car décoratif avec ses feuilles rouges chez les jeunes plantes.
 </t>
